--- a/data/trans_orig/P33B3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA712D72-9E65-4E48-91F8-49D0A7B7AE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{156ADF69-EB36-460E-8F0F-35B2EE3AD97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA357FED-A280-4BDD-A19C-7B9737F49301}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3AD254C-7A3D-4E60-8306-57B4C1884657}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="327">
   <si>
     <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,58%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,919 +104,916 @@
     <t>4,96%</t>
   </si>
   <si>
-    <t>2,83%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
   </si>
   <si>
     <t>8,57%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>12,01%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>17,48%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>69,64%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1431,7 +1428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9EAEA1-F6D4-4A1D-AF5C-53164F51CECB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2F8D3C-08B3-4C8B-B284-661BBFDB615F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1830,10 +1827,10 @@
         <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -1842,13 +1839,13 @@
         <v>54517</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,13 +1860,13 @@
         <v>33968</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -1878,13 +1875,13 @@
         <v>50484</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -1893,13 +1890,13 @@
         <v>84453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,13 +1911,13 @@
         <v>80505</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>152</v>
@@ -1929,13 +1926,13 @@
         <v>106814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>218</v>
@@ -1944,13 +1941,13 @@
         <v>187319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1962,13 @@
         <v>382760</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>448</v>
@@ -1980,13 +1977,13 @@
         <v>364814</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>721</v>
@@ -1995,13 +1992,13 @@
         <v>747575</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,7 +2054,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2069,13 +2066,13 @@
         <v>28590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -2084,13 +2081,13 @@
         <v>36257</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -2099,13 +2096,13 @@
         <v>64846</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2117,13 @@
         <v>23146</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -2135,13 +2132,13 @@
         <v>42446</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>98</v>
@@ -2150,13 +2147,13 @@
         <v>65592</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2168,13 @@
         <v>31265</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -2186,13 +2183,13 @@
         <v>54504</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -2201,13 +2198,13 @@
         <v>85769</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2219,13 @@
         <v>238268</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>324</v>
@@ -2237,13 +2234,13 @@
         <v>240077</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>579</v>
@@ -2252,13 +2249,13 @@
         <v>478345</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2311,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2326,13 +2323,13 @@
         <v>27274</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -2341,13 +2338,13 @@
         <v>43350</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
@@ -2356,13 +2353,13 @@
         <v>70624</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2374,13 @@
         <v>31520</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -2392,13 +2389,13 @@
         <v>44829</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -2407,13 +2404,13 @@
         <v>76349</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2425,13 @@
         <v>52712</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>177</v>
@@ -2443,13 +2440,13 @@
         <v>109960</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>229</v>
@@ -2458,13 +2455,13 @@
         <v>162672</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2476,13 @@
         <v>210734</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>287</v>
@@ -2494,13 +2491,13 @@
         <v>230418</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>471</v>
@@ -2509,13 +2506,13 @@
         <v>441151</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,7 +2568,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2583,13 +2580,13 @@
         <v>5353</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -2598,13 +2595,13 @@
         <v>11006</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -2613,13 +2610,13 @@
         <v>16358</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2631,13 @@
         <v>11654</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -2649,13 +2646,13 @@
         <v>14204</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -2664,13 +2661,13 @@
         <v>25859</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2682,13 @@
         <v>132985</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>371</v>
@@ -2700,13 +2697,13 @@
         <v>165507</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>568</v>
@@ -2715,13 +2712,13 @@
         <v>298492</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2733,13 @@
         <v>46756</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>59</v>
@@ -2751,13 +2748,13 @@
         <v>40779</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>114</v>
@@ -2766,13 +2763,13 @@
         <v>87535</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +2825,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2840,13 +2837,13 @@
         <v>19098</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -2855,13 +2852,13 @@
         <v>22889</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -2870,13 +2867,13 @@
         <v>41987</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>105</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2888,13 @@
         <v>27944</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>97</v>
@@ -2906,13 +2903,13 @@
         <v>47136</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>138</v>
@@ -2921,13 +2918,13 @@
         <v>75080</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2939,13 @@
         <v>36981</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>86</v>
@@ -2957,13 +2954,13 @@
         <v>41341</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>143</v>
@@ -2972,13 +2969,13 @@
         <v>78322</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2990,13 @@
         <v>193200</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>232</v>
@@ -3008,13 +3005,13 @@
         <v>164255</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>477</v>
@@ -3023,13 +3020,13 @@
         <v>357456</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3082,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3097,13 +3094,13 @@
         <v>54443</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>127</v>
@@ -3112,13 +3109,13 @@
         <v>82321</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="M34" s="7">
         <v>182</v>
@@ -3127,13 +3124,13 @@
         <v>136764</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3145,13 @@
         <v>60299</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>133</v>
@@ -3163,13 +3160,13 @@
         <v>89863</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>196</v>
@@ -3178,13 +3175,13 @@
         <v>150161</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3196,13 @@
         <v>119468</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>188</v>
@@ -3214,13 +3211,13 @@
         <v>130914</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>304</v>
@@ -3229,13 +3226,13 @@
         <v>250383</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3247,13 @@
         <v>392467</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>512</v>
@@ -3265,13 +3262,13 @@
         <v>501105</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>876</v>
@@ -3280,13 +3277,13 @@
         <v>893572</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,7 +3339,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3354,13 +3351,13 @@
         <v>132203</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H39" s="7">
         <v>241</v>
@@ -3369,13 +3366,13 @@
         <v>168572</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M39" s="7">
         <v>392</v>
@@ -3384,13 +3381,13 @@
         <v>300775</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3402,13 @@
         <v>43071</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H40" s="7">
         <v>142</v>
@@ -3420,13 +3417,13 @@
         <v>104513</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>193</v>
@@ -3435,13 +3432,13 @@
         <v>147584</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,10 +3453,10 @@
         <v>101759</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>279</v>
+        <v>63</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>280</v>
@@ -3492,7 +3489,7 @@
         <v>285</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3608,13 @@
         <v>289816</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="H44" s="7">
         <v>615</v>
@@ -3626,13 +3623,13 @@
         <v>399141</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M44" s="7">
         <v>937</v>
@@ -3641,7 +3638,7 @@
         <v>688958</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>299</v>
@@ -3680,10 +3677,10 @@
         <v>304</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>39</v>
+        <v>305</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M45" s="7">
         <v>940</v>
@@ -3692,13 +3689,13 @@
         <v>662459</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3710,13 @@
         <v>569392</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H46" s="7">
         <v>1285</v>
@@ -3728,13 +3725,13 @@
         <v>763848</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M46" s="7">
         <v>1938</v>
@@ -3743,13 +3740,13 @@
         <v>1333241</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>317</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,10 +3764,10 @@
         <v>318</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H47" s="7">
         <v>2795</v>
@@ -3779,13 +3776,13 @@
         <v>2223860</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M47" s="7">
         <v>4921</v>
@@ -3794,13 +3791,13 @@
         <v>4503323</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,7 +3853,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{156ADF69-EB36-460E-8F0F-35B2EE3AD97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF27F721-DCDC-493F-A667-C7D3DA21967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3AD254C-7A3D-4E60-8306-57B4C1884657}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E40B9C42-7D30-4C15-A942-496810D9C7E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1428,7 +1428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2F8D3C-08B3-4C8B-B284-661BBFDB615F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C076B9D-E239-47F1-92EA-8D29BD1CDF4A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF27F721-DCDC-493F-A667-C7D3DA21967F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB9A1B2-BC78-470D-A921-0D14F52F173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E40B9C42-7D30-4C15-A942-496810D9C7E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{947F074A-8F90-464E-9117-6A7075844E3E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="328">
   <si>
     <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,58%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,19 +104,19 @@
     <t>4,96%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
   </si>
   <si>
     <t>7,03%</t>
@@ -125,7 +125,7 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>8,94%</t>
+    <t>9,07%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,28 +134,28 @@
     <t>5,27%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -164,28 +164,28 @@
     <t>89,47%</t>
   </si>
   <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,823 +197,826 @@
     <t>4,25%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>6,27%</t>
   </si>
   <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>8,16%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>12,01%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
   </si>
   <si>
     <t>20,08%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>17,48%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>69,64%</t>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1428,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C076B9D-E239-47F1-92EA-8D29BD1CDF4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B79AEA6-0EBD-4D4A-8AE0-611ADE801D08}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1827,10 +1830,10 @@
         <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -1839,13 +1842,13 @@
         <v>54517</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1860,13 +1863,13 @@
         <v>33968</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -1875,13 +1878,13 @@
         <v>50484</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -1890,13 +1893,13 @@
         <v>84453</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,13 +1914,13 @@
         <v>80505</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>152</v>
@@ -1926,13 +1929,13 @@
         <v>106814</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>218</v>
@@ -1941,13 +1944,13 @@
         <v>187319</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,13 +1965,13 @@
         <v>382760</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>448</v>
@@ -1977,13 +1980,13 @@
         <v>364814</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>721</v>
@@ -1992,13 +1995,13 @@
         <v>747575</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,7 +2057,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2066,13 +2069,13 @@
         <v>28590</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -2081,13 +2084,13 @@
         <v>36257</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -2096,13 +2099,13 @@
         <v>64846</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,13 +2120,13 @@
         <v>23146</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -2132,13 +2135,13 @@
         <v>42446</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>98</v>
@@ -2147,13 +2150,13 @@
         <v>65592</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2171,13 @@
         <v>31265</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -2183,13 +2186,13 @@
         <v>54504</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>125</v>
@@ -2198,13 +2201,13 @@
         <v>85769</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,13 +2222,13 @@
         <v>238268</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>324</v>
@@ -2234,13 +2237,13 @@
         <v>240077</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>579</v>
@@ -2249,13 +2252,13 @@
         <v>478345</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,7 +2314,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2323,13 +2326,13 @@
         <v>27274</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -2338,13 +2341,13 @@
         <v>43350</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
@@ -2353,13 +2356,13 @@
         <v>70624</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2377,13 @@
         <v>31520</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
@@ -2389,13 +2392,13 @@
         <v>44829</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -2404,13 +2407,13 @@
         <v>76349</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2428,13 @@
         <v>52712</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>177</v>
@@ -2440,13 +2443,13 @@
         <v>109960</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>229</v>
@@ -2455,13 +2458,13 @@
         <v>162672</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2479,13 @@
         <v>210734</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>287</v>
@@ -2491,13 +2494,13 @@
         <v>230418</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>471</v>
@@ -2506,13 +2509,13 @@
         <v>441151</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,7 +2571,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2580,13 +2583,13 @@
         <v>5353</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -2595,13 +2598,13 @@
         <v>11006</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -2610,13 +2613,13 @@
         <v>16358</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2634,13 @@
         <v>11654</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -2646,13 +2649,13 @@
         <v>14204</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -2661,13 +2664,13 @@
         <v>25859</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2685,13 @@
         <v>132985</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>371</v>
@@ -2697,13 +2700,13 @@
         <v>165507</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>568</v>
@@ -2712,13 +2715,13 @@
         <v>298492</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2736,13 @@
         <v>46756</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>59</v>
@@ -2748,13 +2751,13 @@
         <v>40779</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>114</v>
@@ -2763,13 +2766,13 @@
         <v>87535</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,7 +2828,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2837,13 +2840,13 @@
         <v>19098</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -2852,13 +2855,13 @@
         <v>22889</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -2867,13 +2870,13 @@
         <v>41987</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2891,13 @@
         <v>27944</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>97</v>
@@ -2903,13 +2906,13 @@
         <v>47136</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>138</v>
@@ -2918,13 +2921,13 @@
         <v>75080</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2942,13 @@
         <v>36981</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="H31" s="7">
         <v>86</v>
@@ -2954,13 +2957,13 @@
         <v>41341</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>143</v>
@@ -2969,13 +2972,13 @@
         <v>78322</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2993,13 @@
         <v>193200</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>232</v>
@@ -3005,13 +3008,13 @@
         <v>164255</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>477</v>
@@ -3020,13 +3023,13 @@
         <v>357456</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,7 +3085,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3094,13 +3097,13 @@
         <v>54443</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H34" s="7">
         <v>127</v>
@@ -3109,13 +3112,13 @@
         <v>82321</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>182</v>
@@ -3124,13 +3127,13 @@
         <v>136764</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3148,13 @@
         <v>60299</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>133</v>
@@ -3160,13 +3163,13 @@
         <v>89863</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>196</v>
@@ -3175,13 +3178,13 @@
         <v>150161</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3199,13 @@
         <v>119468</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>188</v>
@@ -3211,13 +3214,13 @@
         <v>130914</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>304</v>
@@ -3226,13 +3229,13 @@
         <v>250383</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3250,13 @@
         <v>392467</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H37" s="7">
         <v>512</v>
@@ -3262,13 +3265,13 @@
         <v>501105</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M37" s="7">
         <v>876</v>
@@ -3277,13 +3280,13 @@
         <v>893572</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,7 +3342,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3351,13 +3354,13 @@
         <v>132203</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H39" s="7">
         <v>241</v>
@@ -3366,13 +3369,13 @@
         <v>168572</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M39" s="7">
         <v>392</v>
@@ -3381,13 +3384,13 @@
         <v>300775</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3405,13 @@
         <v>43071</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H40" s="7">
         <v>142</v>
@@ -3417,13 +3420,13 @@
         <v>104513</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>193</v>
@@ -3432,13 +3435,13 @@
         <v>147584</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,10 +3456,10 @@
         <v>101759</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>63</v>
+        <v>279</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>280</v>
@@ -3489,7 +3492,7 @@
         <v>285</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3611,13 @@
         <v>289816</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="G44" s="7" t="s">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="H44" s="7">
         <v>615</v>
@@ -3623,13 +3626,13 @@
         <v>399141</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M44" s="7">
         <v>937</v>
@@ -3638,7 +3641,7 @@
         <v>688958</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>299</v>
@@ -3677,10 +3680,10 @@
         <v>304</v>
       </c>
       <c r="K45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M45" s="7">
         <v>940</v>
@@ -3689,13 +3692,13 @@
         <v>662459</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3713,13 @@
         <v>569392</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H46" s="7">
         <v>1285</v>
@@ -3725,13 +3728,13 @@
         <v>763848</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M46" s="7">
         <v>1938</v>
@@ -3740,13 +3743,13 @@
         <v>1333241</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,10 +3767,10 @@
         <v>318</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>123</v>
+        <v>319</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H47" s="7">
         <v>2795</v>
@@ -3776,13 +3779,13 @@
         <v>2223860</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M47" s="7">
         <v>4921</v>
@@ -3791,13 +3794,13 @@
         <v>4503323</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,7 +3856,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB9A1B2-BC78-470D-A921-0D14F52F173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22BB15E8-C08B-45D1-83CD-3A2902F25190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{947F074A-8F90-464E-9117-6A7075844E3E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F170FB48-859F-4A30-AE22-3DBDE9A5A71B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
   <si>
     <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,952 +71,961 @@
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>0,3%</t>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
   </si>
   <si>
     <t>7,03%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1431,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B79AEA6-0EBD-4D4A-8AE0-611ADE801D08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0475F60-BB93-4436-BF4B-8205E343B3F7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1552,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>792</v>
+        <v>838</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1567,7 +1576,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>2294</v>
+        <v>2408</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1582,7 +1591,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>3086</v>
+        <v>3246</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1603,7 +1612,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>12904</v>
+        <v>14786</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1618,7 +1627,7 @@
         <v>51</v>
       </c>
       <c r="I5" s="7">
-        <v>24477</v>
+        <v>25405</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1633,7 +1642,7 @@
         <v>66</v>
       </c>
       <c r="N5" s="7">
-        <v>37381</v>
+        <v>40192</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1654,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="7">
-        <v>13719</v>
+        <v>15636</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1669,82 +1678,82 @@
         <v>62</v>
       </c>
       <c r="I6" s="7">
-        <v>27567</v>
+        <v>28965</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>82</v>
       </c>
       <c r="N6" s="7">
-        <v>41286</v>
+        <v>44601</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>295</v>
       </c>
       <c r="D7" s="7">
-        <v>232883</v>
+        <v>280182</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>419</v>
       </c>
       <c r="I7" s="7">
-        <v>217065</v>
+        <v>232857</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>714</v>
       </c>
       <c r="N7" s="7">
-        <v>449947</v>
+        <v>513039</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,51 +1765,51 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1809,28 +1818,28 @@
         <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>22064</v>
+        <v>21928</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>44</v>
       </c>
       <c r="I9" s="7">
-        <v>32453</v>
+        <v>29681</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>56</v>
@@ -1839,7 +1848,7 @@
         <v>60</v>
       </c>
       <c r="N9" s="7">
-        <v>54517</v>
+        <v>51609</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1860,7 +1869,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>33968</v>
+        <v>33272</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1875,7 +1884,7 @@
         <v>73</v>
       </c>
       <c r="I10" s="7">
-        <v>50484</v>
+        <v>46802</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1890,7 +1899,7 @@
         <v>100</v>
       </c>
       <c r="N10" s="7">
-        <v>84453</v>
+        <v>80075</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1911,7 +1920,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>80505</v>
+        <v>77803</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -1926,7 +1935,7 @@
         <v>152</v>
       </c>
       <c r="I11" s="7">
-        <v>106814</v>
+        <v>99438</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -1941,7 +1950,7 @@
         <v>218</v>
       </c>
       <c r="N11" s="7">
-        <v>187319</v>
+        <v>177241</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -1956,13 +1965,13 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>273</v>
       </c>
       <c r="D12" s="7">
-        <v>382760</v>
+        <v>385387</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
@@ -1977,7 +1986,7 @@
         <v>448</v>
       </c>
       <c r="I12" s="7">
-        <v>364814</v>
+        <v>339047</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -1992,7 +2001,7 @@
         <v>721</v>
       </c>
       <c r="N12" s="7">
-        <v>747575</v>
+        <v>724434</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>84</v>
@@ -2013,46 +2022,46 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>717</v>
       </c>
       <c r="I13" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1099</v>
       </c>
       <c r="N13" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,7 +2075,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>28590</v>
+        <v>27487</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2081,7 +2090,7 @@
         <v>58</v>
       </c>
       <c r="I14" s="7">
-        <v>36257</v>
+        <v>33706</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2096,16 +2105,16 @@
         <v>93</v>
       </c>
       <c r="N14" s="7">
-        <v>64846</v>
+        <v>61193</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,46 +2126,46 @@
         <v>29</v>
       </c>
       <c r="D15" s="7">
-        <v>23146</v>
+        <v>22432</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
       </c>
       <c r="I15" s="7">
-        <v>42446</v>
+        <v>39429</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>98</v>
       </c>
       <c r="N15" s="7">
-        <v>65592</v>
+        <v>61861</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2177,13 @@
         <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>31265</v>
+        <v>29965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>107</v>
@@ -2183,7 +2192,7 @@
         <v>85</v>
       </c>
       <c r="I16" s="7">
-        <v>54504</v>
+        <v>50929</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>108</v>
@@ -2198,7 +2207,7 @@
         <v>125</v>
       </c>
       <c r="N16" s="7">
-        <v>85769</v>
+        <v>80895</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>111</v>
@@ -2213,13 +2222,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>255</v>
       </c>
       <c r="D17" s="7">
-        <v>238268</v>
+        <v>235197</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>114</v>
@@ -2234,7 +2243,7 @@
         <v>324</v>
       </c>
       <c r="I17" s="7">
-        <v>240077</v>
+        <v>225063</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
@@ -2249,7 +2258,7 @@
         <v>579</v>
       </c>
       <c r="N17" s="7">
-        <v>478345</v>
+        <v>460260</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>120</v>
@@ -2270,46 +2279,46 @@
         <v>359</v>
       </c>
       <c r="D18" s="7">
-        <v>321268</v>
+        <v>315081</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
       </c>
       <c r="I18" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>895</v>
       </c>
       <c r="N18" s="7">
-        <v>694552</v>
+        <v>664209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2332,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>27274</v>
+        <v>26483</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>124</v>
@@ -2338,7 +2347,7 @@
         <v>68</v>
       </c>
       <c r="I19" s="7">
-        <v>43350</v>
+        <v>39733</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
@@ -2353,16 +2362,16 @@
         <v>96</v>
       </c>
       <c r="N19" s="7">
-        <v>70624</v>
+        <v>66216</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,46 +2383,46 @@
         <v>28</v>
       </c>
       <c r="D20" s="7">
-        <v>31520</v>
+        <v>30362</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>67</v>
       </c>
       <c r="I20" s="7">
-        <v>44829</v>
+        <v>41126</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
       </c>
       <c r="N20" s="7">
-        <v>76349</v>
+        <v>71488</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,97 +2434,97 @@
         <v>52</v>
       </c>
       <c r="D21" s="7">
-        <v>52712</v>
+        <v>50266</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>177</v>
       </c>
       <c r="I21" s="7">
-        <v>109960</v>
+        <v>102276</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>229</v>
       </c>
       <c r="N21" s="7">
-        <v>162672</v>
+        <v>152542</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>184</v>
       </c>
       <c r="D22" s="7">
-        <v>210734</v>
+        <v>205447</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>287</v>
       </c>
       <c r="I22" s="7">
-        <v>230418</v>
+        <v>292583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>471</v>
       </c>
       <c r="N22" s="7">
-        <v>441151</v>
+        <v>498029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,51 +2536,51 @@
         <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>599</v>
       </c>
       <c r="I23" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>891</v>
       </c>
       <c r="N23" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2580,46 +2589,46 @@
         <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>5353</v>
+        <v>4828</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
       </c>
       <c r="I24" s="7">
-        <v>11006</v>
+        <v>9993</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
       </c>
       <c r="N24" s="7">
-        <v>16358</v>
+        <v>14821</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,46 +2640,46 @@
         <v>19</v>
       </c>
       <c r="D25" s="7">
-        <v>11654</v>
+        <v>10524</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
       </c>
       <c r="I25" s="7">
-        <v>14204</v>
+        <v>12901</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
       </c>
       <c r="N25" s="7">
-        <v>25859</v>
+        <v>23425</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,97 +2691,97 @@
         <v>197</v>
       </c>
       <c r="D26" s="7">
-        <v>132985</v>
+        <v>121462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="H26" s="7">
         <v>371</v>
       </c>
       <c r="I26" s="7">
-        <v>165507</v>
+        <v>150372</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>568</v>
       </c>
       <c r="N26" s="7">
-        <v>298492</v>
+        <v>271834</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>55</v>
       </c>
       <c r="D27" s="7">
-        <v>46756</v>
+        <v>41928</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>59</v>
       </c>
       <c r="I27" s="7">
-        <v>40779</v>
+        <v>35008</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>114</v>
       </c>
       <c r="N27" s="7">
-        <v>87535</v>
+        <v>76936</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,51 +2793,51 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>491</v>
       </c>
       <c r="I28" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
         <v>770</v>
       </c>
       <c r="N28" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2837,46 +2846,46 @@
         <v>28</v>
       </c>
       <c r="D29" s="7">
-        <v>19098</v>
+        <v>18113</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
       </c>
       <c r="I29" s="7">
-        <v>22889</v>
+        <v>21314</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
       </c>
       <c r="N29" s="7">
-        <v>41987</v>
+        <v>39427</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,46 +2897,46 @@
         <v>41</v>
       </c>
       <c r="D30" s="7">
-        <v>27944</v>
+        <v>26841</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>97</v>
       </c>
       <c r="I30" s="7">
-        <v>47136</v>
+        <v>44009</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>138</v>
       </c>
       <c r="N30" s="7">
-        <v>75080</v>
+        <v>70850</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,97 +2948,97 @@
         <v>57</v>
       </c>
       <c r="D31" s="7">
-        <v>36981</v>
+        <v>35675</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>86</v>
       </c>
       <c r="I31" s="7">
-        <v>41341</v>
+        <v>38654</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>143</v>
       </c>
       <c r="N31" s="7">
-        <v>78322</v>
+        <v>74329</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="7">
         <v>245</v>
       </c>
       <c r="D32" s="7">
-        <v>193200</v>
+        <v>189008</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>232</v>
       </c>
       <c r="I32" s="7">
-        <v>164255</v>
+        <v>153079</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>477</v>
       </c>
       <c r="N32" s="7">
-        <v>357456</v>
+        <v>342086</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,51 +3050,51 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3094,46 +3103,46 @@
         <v>55</v>
       </c>
       <c r="D34" s="7">
-        <v>54443</v>
+        <v>53258</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>127</v>
       </c>
       <c r="I34" s="7">
-        <v>82321</v>
+        <v>75840</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>182</v>
       </c>
       <c r="N34" s="7">
-        <v>136764</v>
+        <v>129098</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,46 +3154,46 @@
         <v>63</v>
       </c>
       <c r="D35" s="7">
-        <v>60299</v>
+        <v>58972</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>133</v>
       </c>
       <c r="I35" s="7">
-        <v>89863</v>
+        <v>83853</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>196</v>
       </c>
       <c r="N35" s="7">
-        <v>150161</v>
+        <v>142825</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,97 +3205,97 @@
         <v>116</v>
       </c>
       <c r="D36" s="7">
-        <v>119468</v>
+        <v>116012</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>188</v>
       </c>
       <c r="I36" s="7">
-        <v>130914</v>
+        <v>121795</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>304</v>
       </c>
       <c r="N36" s="7">
-        <v>250383</v>
+        <v>237807</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>364</v>
       </c>
       <c r="D37" s="7">
-        <v>392467</v>
+        <v>395007</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>512</v>
       </c>
       <c r="I37" s="7">
-        <v>501105</v>
+        <v>567778</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>876</v>
       </c>
       <c r="N37" s="7">
-        <v>893572</v>
+        <v>962784</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,51 +3307,51 @@
         <v>598</v>
       </c>
       <c r="D38" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" s="7">
         <v>960</v>
       </c>
       <c r="I38" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M38" s="7">
         <v>1558</v>
       </c>
       <c r="N38" s="7">
-        <v>1430880</v>
+        <v>1472514</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3351,46 +3360,46 @@
         <v>151</v>
       </c>
       <c r="D39" s="7">
-        <v>132203</v>
+        <v>113038</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H39" s="7">
         <v>241</v>
       </c>
       <c r="I39" s="7">
-        <v>168572</v>
+        <v>141539</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M39" s="7">
         <v>392</v>
       </c>
       <c r="N39" s="7">
-        <v>300775</v>
+        <v>254576</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>75</v>
+        <v>271</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,46 +3411,46 @@
         <v>51</v>
       </c>
       <c r="D40" s="7">
-        <v>43071</v>
+        <v>37168</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
       <c r="H40" s="7">
         <v>142</v>
       </c>
       <c r="I40" s="7">
-        <v>104513</v>
+        <v>86758</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>193</v>
       </c>
       <c r="N40" s="7">
-        <v>147584</v>
+        <v>123926</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,97 +3462,97 @@
         <v>105</v>
       </c>
       <c r="D41" s="7">
-        <v>101759</v>
+        <v>86593</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>164</v>
       </c>
       <c r="I41" s="7">
-        <v>127240</v>
+        <v>106132</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>269</v>
       </c>
       <c r="N41" s="7">
-        <v>228999</v>
+        <v>192725</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="7">
         <v>455</v>
       </c>
       <c r="D42" s="7">
-        <v>582395</v>
+        <v>691921</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H42" s="7">
         <v>514</v>
       </c>
       <c r="I42" s="7">
-        <v>465346</v>
+        <v>380963</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M42" s="7">
         <v>969</v>
       </c>
       <c r="N42" s="7">
-        <v>1047741</v>
+        <v>1072884</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,46 +3564,46 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="7">
         <v>1061</v>
       </c>
       <c r="I43" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M43" s="7">
         <v>1823</v>
       </c>
       <c r="N43" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,46 +3617,46 @@
         <v>322</v>
       </c>
       <c r="D44" s="7">
-        <v>289816</v>
+        <v>265973</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>68</v>
+        <v>301</v>
       </c>
       <c r="H44" s="7">
         <v>615</v>
       </c>
       <c r="I44" s="7">
-        <v>399141</v>
+        <v>354214</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M44" s="7">
         <v>937</v>
       </c>
       <c r="N44" s="7">
-        <v>688958</v>
+        <v>620187</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,46 +3668,46 @@
         <v>273</v>
       </c>
       <c r="D45" s="7">
-        <v>244507</v>
+        <v>234357</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H45" s="7">
         <v>667</v>
       </c>
       <c r="I45" s="7">
-        <v>417952</v>
+        <v>380283</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M45" s="7">
         <v>940</v>
       </c>
       <c r="N45" s="7">
-        <v>662459</v>
+        <v>614640</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,97 +3719,97 @@
         <v>653</v>
       </c>
       <c r="D46" s="7">
-        <v>569392</v>
+        <v>533412</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H46" s="7">
         <v>1285</v>
       </c>
       <c r="I46" s="7">
-        <v>763848</v>
+        <v>698561</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M46" s="7">
         <v>1938</v>
       </c>
       <c r="N46" s="7">
-        <v>1333241</v>
+        <v>1231973</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="7">
         <v>2126</v>
       </c>
       <c r="D47" s="7">
-        <v>2279463</v>
+        <v>2424076</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>318</v>
+        <v>84</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H47" s="7">
         <v>2795</v>
       </c>
       <c r="I47" s="7">
-        <v>2223860</v>
+        <v>2226377</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>323</v>
+        <v>178</v>
       </c>
       <c r="M47" s="7">
         <v>4921</v>
       </c>
       <c r="N47" s="7">
-        <v>4503323</v>
+        <v>4650453</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,51 +3821,51 @@
         <v>3374</v>
       </c>
       <c r="D48" s="7">
-        <v>3383178</v>
+        <v>3457818</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" s="7">
         <v>5362</v>
       </c>
       <c r="I48" s="7">
-        <v>3804802</v>
+        <v>3659435</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M48" s="7">
         <v>8736</v>
       </c>
       <c r="N48" s="7">
-        <v>7187980</v>
+        <v>7117253</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B3_2023-Provincia-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Poblacion que se despierta demasiado temprano de forma involuntaria en 2023</t>
+          <t>Poblacion según la frecuencia con la que se despierta demasiado temprano de forma involuntaria en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
